--- a/Quarterly_Prison_Statistics_-_March_2024.xlsx
+++ b/Quarterly_Prison_Statistics_-_March_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BIP\Share\Performance Analytics team (from Jan 2021)\Reporting\Prison &amp; Community Stats (Quarterly)\2023-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9314c658857c89a2/Documents/Sem 2/Data Engineering/Individual project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03047EF2-2951-42B9-8FBB-BCD32F005330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-13636" windowWidth="24267" windowHeight="13148" xr2:uid="{1AD54280-1463-4812-8B94-6336F194FDB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1AD54280-1463-4812-8B94-6336F194FDB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -411,11 +411,6 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -438,9 +433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -740,20 +735,20 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:A1048576"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="5" width="12.33203125" style="9" customWidth="1"/>
-    <col min="6" max="24" width="11.5546875" style="9" customWidth="1"/>
-    <col min="25" max="27" width="11.21875" style="9" customWidth="1"/>
+    <col min="3" max="5" width="12.28515625" style="9" customWidth="1"/>
+    <col min="6" max="24" width="11.5703125" style="9" customWidth="1"/>
+    <col min="25" max="27" width="11.28515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30"/>
+    <row r="1" spans="1:27" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
       <c r="C1" s="13">
         <v>43190</v>
       </c>
@@ -830,7 +825,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="23.8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>29</v>
@@ -861,7 +856,7 @@
       <c r="Z2" s="19"/>
       <c r="AA2" s="19"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
@@ -942,7 +937,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
@@ -974,7 +969,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +1050,7 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1136,7 +1131,7 @@
         <v>9442</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1293,7 @@
         <v>9508</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="23.8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
         <v>8</v>
@@ -1409,7 +1404,7 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
     </row>
-    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1442,7 +1437,7 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1525,7 +1520,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1555,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +1638,7 @@
         <v>4988</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1693,7 @@
         <v>8836</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1748,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1836,7 +1831,7 @@
         <v>8891</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
@@ -1919,7 +1914,7 @@
         <v>0.93500000000000016</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1952,7 +1947,7 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>72</v>
       </c>
@@ -2035,7 +2030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -2153,7 +2148,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -2208,7 +2203,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -2346,7 +2341,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -2462,7 +2457,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>32</v>
       </c>
@@ -2545,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
@@ -2580,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -2663,7 +2658,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -2718,7 +2713,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -2773,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -2856,7 +2851,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -2939,7 +2934,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -2972,7 +2967,7 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -3055,7 +3050,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
@@ -3090,7 +3085,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>33</v>
       </c>
@@ -3173,7 +3168,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -3228,7 +3223,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>33</v>
       </c>
@@ -3283,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
@@ -3366,7 +3361,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -3449,7 +3444,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>17</v>
       </c>
@@ -3482,7 +3477,7 @@
       <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>17</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>17</v>
       </c>
@@ -3600,7 +3595,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>17</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>17</v>
       </c>
@@ -3738,7 +3733,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>17</v>
       </c>
@@ -3793,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +3871,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
@@ -3959,7 +3954,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
@@ -3992,7 +3987,7 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>34</v>
       </c>
@@ -4075,7 +4070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>34</v>
       </c>
@@ -4110,7 +4105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>34</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>34</v>
       </c>
@@ -4248,7 +4243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>34</v>
       </c>
@@ -4303,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
@@ -4386,7 +4381,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>34</v>
       </c>
@@ -4469,7 +4464,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>18</v>
       </c>
@@ -4502,7 +4497,7 @@
       <c r="Z59" s="11"/>
       <c r="AA59" s="11"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>18</v>
       </c>
@@ -4585,7 +4580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>18</v>
       </c>
@@ -4620,7 +4615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>18</v>
       </c>
@@ -4703,7 +4698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>18</v>
       </c>
@@ -4758,7 +4753,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>18</v>
       </c>
@@ -4813,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>18</v>
       </c>
@@ -4896,7 +4891,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>18</v>
       </c>
@@ -4979,7 +4974,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>19</v>
       </c>
@@ -5012,7 +5007,7 @@
       <c r="Z67" s="11"/>
       <c r="AA67" s="11"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>19</v>
       </c>
@@ -5095,7 +5090,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>19</v>
       </c>
@@ -5130,7 +5125,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>19</v>
       </c>
@@ -5213,7 +5208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>19</v>
       </c>
@@ -5268,7 +5263,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>19</v>
       </c>
@@ -5323,7 +5318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>19</v>
       </c>
@@ -5406,7 +5401,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>19</v>
       </c>
@@ -5489,7 +5484,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>20</v>
       </c>
@@ -5522,7 +5517,7 @@
       <c r="Z75" s="11"/>
       <c r="AA75" s="11"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>20</v>
       </c>
@@ -5605,7 +5600,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>20</v>
       </c>
@@ -5640,7 +5635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>20</v>
       </c>
@@ -5723,7 +5718,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>20</v>
       </c>
@@ -5778,7 +5773,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>20</v>
       </c>
@@ -5833,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>20</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>20</v>
       </c>
@@ -5999,7 +5994,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>21</v>
       </c>
@@ -6032,7 +6027,7 @@
       <c r="Z83" s="11"/>
       <c r="AA83" s="11"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
@@ -6115,7 +6110,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
@@ -6150,7 +6145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>21</v>
       </c>
@@ -6233,7 +6228,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
@@ -6288,7 +6283,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>21</v>
       </c>
@@ -6343,7 +6338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -6426,7 +6421,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>21</v>
       </c>
@@ -6509,7 +6504,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>22</v>
       </c>
@@ -6542,7 +6537,7 @@
       <c r="Z91" s="11"/>
       <c r="AA91" s="11"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>22</v>
       </c>
@@ -6625,7 +6620,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>22</v>
       </c>
@@ -6660,7 +6655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>22</v>
       </c>
@@ -6743,7 +6738,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>22</v>
       </c>
@@ -6798,7 +6793,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>22</v>
       </c>
@@ -6853,7 +6848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>22</v>
       </c>
@@ -6936,7 +6931,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>22</v>
       </c>
@@ -7019,7 +7014,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>23</v>
       </c>
@@ -7052,7 +7047,7 @@
       <c r="Z99" s="11"/>
       <c r="AA99" s="11"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>23</v>
       </c>
@@ -7135,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>23</v>
       </c>
@@ -7170,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>23</v>
       </c>
@@ -7253,7 +7248,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>23</v>
       </c>
@@ -7308,7 +7303,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>23</v>
       </c>
@@ -7363,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>23</v>
       </c>
@@ -7446,7 +7441,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>23</v>
       </c>
@@ -7529,7 +7524,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>24</v>
       </c>
@@ -7562,7 +7557,7 @@
       <c r="Z107" s="11"/>
       <c r="AA107" s="11"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
@@ -7645,7 +7640,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>24</v>
       </c>
@@ -7680,7 +7675,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
@@ -7763,7 +7758,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>24</v>
       </c>
@@ -7818,7 +7813,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>24</v>
       </c>
@@ -7873,7 +7868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>24</v>
       </c>
@@ -7956,7 +7951,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>24</v>
       </c>
@@ -8039,7 +8034,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>25</v>
       </c>
@@ -8072,7 +8067,7 @@
       <c r="Z115" s="11"/>
       <c r="AA115" s="11"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>25</v>
       </c>
@@ -8155,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>25</v>
       </c>
@@ -8190,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>25</v>
       </c>
@@ -8273,7 +8268,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>25</v>
       </c>
@@ -8328,7 +8323,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>25</v>
       </c>
@@ -8383,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>25</v>
       </c>
@@ -8466,7 +8461,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>25</v>
       </c>
@@ -8549,7 +8544,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>26</v>
       </c>
@@ -8582,7 +8577,7 @@
       <c r="Z123" s="11"/>
       <c r="AA123" s="11"/>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>26</v>
       </c>
@@ -8665,7 +8660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>26</v>
       </c>
@@ -8700,7 +8695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>26</v>
       </c>
@@ -8783,7 +8778,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>26</v>
       </c>
@@ -8838,7 +8833,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>26</v>
       </c>
@@ -8893,7 +8888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>26</v>
       </c>
@@ -8976,7 +8971,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>26</v>
       </c>
@@ -9059,7 +9054,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>27</v>
       </c>
@@ -9092,7 +9087,7 @@
       <c r="Z131" s="11"/>
       <c r="AA131" s="11"/>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>27</v>
       </c>
@@ -9175,7 +9170,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>27</v>
       </c>
@@ -9210,7 +9205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>27</v>
       </c>
@@ -9293,7 +9288,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>27</v>
       </c>
@@ -9348,7 +9343,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>27</v>
       </c>
@@ -9403,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>27</v>
       </c>
@@ -9486,7 +9481,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>27</v>
       </c>
@@ -9569,7 +9564,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="23.8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
       <c r="B139" s="18" t="s">
         <v>12</v>
@@ -9600,7 +9595,7 @@
       <c r="Z139" s="19"/>
       <c r="AA139" s="19"/>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>13</v>
       </c>
@@ -9633,7 +9628,7 @@
       <c r="Z140" s="19"/>
       <c r="AA140" s="19"/>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>13</v>
       </c>
@@ -9716,7 +9711,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>13</v>
       </c>
@@ -9751,7 +9746,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>13</v>
       </c>
@@ -9834,7 +9829,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>13</v>
       </c>
@@ -9889,7 +9884,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>13</v>
       </c>
@@ -9944,7 +9939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>13</v>
       </c>
@@ -10027,7 +10022,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>13</v>
       </c>
@@ -10110,7 +10105,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>30</v>
       </c>
@@ -10143,7 +10138,7 @@
       <c r="Z148" s="11"/>
       <c r="AA148" s="11"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>30</v>
       </c>
@@ -10226,7 +10221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>30</v>
       </c>
@@ -10261,7 +10256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>30</v>
       </c>
@@ -10344,7 +10339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>30</v>
       </c>
@@ -10399,7 +10394,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>30</v>
       </c>
@@ -10454,7 +10449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>30</v>
       </c>
@@ -10537,7 +10532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>30</v>
       </c>
@@ -10620,7 +10615,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>35</v>
       </c>
@@ -10653,7 +10648,7 @@
       <c r="Z156" s="11"/>
       <c r="AA156" s="11"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>35</v>
       </c>
@@ -10736,7 +10731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>35</v>
       </c>
@@ -10771,7 +10766,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>35</v>
       </c>
@@ -10854,7 +10849,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>35</v>
       </c>
@@ -10909,7 +10904,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>35</v>
       </c>
@@ -10964,7 +10959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>35</v>
       </c>
@@ -11047,7 +11042,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>35</v>
       </c>
@@ -11130,7 +11125,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>28</v>
       </c>
@@ -11163,7 +11158,7 @@
       <c r="Z164" s="11"/>
       <c r="AA164" s="11"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>28</v>
       </c>
@@ -11246,7 +11241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>28</v>
       </c>
@@ -11281,7 +11276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>28</v>
       </c>
@@ -11364,7 +11359,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>28</v>
       </c>
@@ -11419,7 +11414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>28</v>
       </c>
@@ -11474,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>28</v>
       </c>
@@ -11557,7 +11552,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>28</v>
       </c>
@@ -11640,22 +11635,22 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B172" s="5"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
       <c r="C177" s="12"/>
     </row>
@@ -11673,32 +11668,32 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="21" width="11.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" customWidth="1"/>
-    <col min="24" max="24" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11778,8 +11773,8 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="14">
@@ -11858,8 +11853,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
@@ -11938,8 +11933,8 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="14">
@@ -12018,8 +12013,8 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="14">
@@ -12098,8 +12093,8 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="14">
@@ -12178,8 +12173,8 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="14">
@@ -12258,8 +12253,8 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="14">
@@ -12352,32 +12347,31 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="21" width="11.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
-    <col min="24" max="24" width="9.6640625" customWidth="1"/>
-    <col min="25" max="25" width="9.77734375" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -12461,7 +12455,7 @@
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -12545,7 +12539,7 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -12629,7 +12623,7 @@
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -12713,7 +12707,7 @@
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -12797,7 +12791,7 @@
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -12895,32 +12889,32 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="9" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="11" style="9" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="9" customWidth="1"/>
     <col min="11" max="11" width="11" style="9" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="9" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="9" customWidth="1"/>
     <col min="15" max="15" width="11" style="9" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="9" customWidth="1"/>
     <col min="19" max="19" width="11" style="9" customWidth="1"/>
-    <col min="20" max="21" width="11.33203125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" style="9" customWidth="1"/>
     <col min="24" max="25" width="10" style="9" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="8.88671875" style="9"/>
+    <col min="26" max="26" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -13000,7 +12994,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>43</v>
       </c>
@@ -13080,7 +13074,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
@@ -13160,7 +13154,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
@@ -13240,7 +13234,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
@@ -13320,7 +13314,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
@@ -13400,7 +13394,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
@@ -13494,33 +13488,33 @@
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="9" customWidth="1"/>
-    <col min="4" max="5" width="11.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="9" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="11" style="9" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="9" customWidth="1"/>
     <col min="11" max="11" width="11" style="9" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="9" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="9" customWidth="1"/>
     <col min="15" max="15" width="11" style="9" customWidth="1"/>
-    <col min="16" max="17" width="11.33203125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" style="9" customWidth="1"/>
+    <col min="16" max="17" width="11.28515625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="9" customWidth="1"/>
     <col min="19" max="19" width="11" style="9" customWidth="1"/>
-    <col min="20" max="21" width="11.33203125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="11.28515625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="9" customWidth="1"/>
     <col min="23" max="23" width="10" style="9" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" style="9" customWidth="1"/>
-    <col min="25" max="25" width="9.77734375" style="9" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="9"/>
+    <col min="24" max="24" width="10.28515625" style="9" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="9" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -13600,8 +13594,8 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="14">
@@ -13680,8 +13674,8 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="14"/>
@@ -13738,8 +13732,8 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="14">
@@ -13818,8 +13812,8 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="14"/>
@@ -13876,8 +13870,8 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="14"/>
@@ -13934,8 +13928,8 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="14"/>
@@ -13992,8 +13986,8 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="14"/>
@@ -14050,8 +14044,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="14"/>
@@ -14108,8 +14102,8 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="14"/>
@@ -14166,8 +14160,8 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="14"/>
@@ -14224,8 +14218,8 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="14">
@@ -14304,8 +14298,8 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="14"/>
@@ -14362,8 +14356,8 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="14">
@@ -14442,8 +14436,8 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="14"/>
@@ -14500,8 +14494,8 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="14"/>
@@ -14558,8 +14552,8 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="14"/>
@@ -14616,8 +14610,8 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="14"/>
@@ -14666,8 +14660,8 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="14">
@@ -14718,8 +14712,8 @@
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="14">
@@ -14770,8 +14764,8 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="14">
@@ -14822,8 +14816,8 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="14">
@@ -14874,8 +14868,8 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="14">
@@ -14926,8 +14920,8 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="14">
@@ -14978,7 +14972,7 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
